--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200611.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200611.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E77395-2A40-4C4B-B9F2-EDD6A45A40DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE12120-BC0F-4803-8FC0-4E1AE185729E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ21"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -774,10 +774,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D2" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -839,10 +839,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D3" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -904,10 +904,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D4" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -969,10 +969,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D5" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -1034,10 +1034,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D6" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -1099,10 +1099,10 @@
         <v>46</v>
       </c>
       <c r="C7" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D7" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1164,10 +1164,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D8" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -1229,10 +1229,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D9" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1294,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="C10" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D10" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -1359,10 +1359,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D11" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -1427,10 +1427,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D12" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -1492,10 +1492,10 @@
         <v>46</v>
       </c>
       <c r="C13" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D13" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
@@ -1557,10 +1557,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D14" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -1622,10 +1622,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D15" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -1687,10 +1687,10 @@
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D16" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -1752,10 +1752,10 @@
         <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D17" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -1817,10 +1817,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D18" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -1879,10 +1879,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D19" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -1935,10 +1935,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D20" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -1997,10 +1997,10 @@
         <v>73</v>
       </c>
       <c r="C21" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D21" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
